--- a/モーター特性.xlsx
+++ b/モーター特性.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programing\MyCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{452373C6-4945-4FCE-841B-448497EE101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617D94B-48C5-478C-A4C9-865CF3DA39D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5415" yWindow="8730" windowWidth="21600" windowHeight="11505" xr2:uid="{0BDEC5DB-2EC2-4D54-BD6E-2A75DF92FAC5}"/>
+    <workbookView xWindow="-4470" yWindow="2160" windowWidth="9000" windowHeight="11505" xr2:uid="{0BDEC5DB-2EC2-4D54-BD6E-2A75DF92FAC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="31">
   <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +83,82 @@
     <t>C#</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Cis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Es</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ges</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ais</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>His</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">constexpr int </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -127,12 +203,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3736,13 +3815,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3772,13 +3851,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
@@ -3808,13 +3887,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
@@ -4142,15 +4221,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F788D0AA-033A-4C4C-AB65-DD829C93A219}">
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:P154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -4158,7 +4240,7 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <f>$J$3*EXP(-$J$4*C2)</f>
+        <f>$K$3*EXP(-$K$4*C2)</f>
         <v>442.9603780431641</v>
       </c>
       <c r="E2">
@@ -4172,8 +4254,12 @@
         <f>440*((2^(1/12))^(C2-69))</f>
         <v>2217.4610478149771</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <f>(1/I2)*1000000</f>
+        <v>450.96620794551114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +4267,7 @@
         <v>96</v>
       </c>
       <c r="D3">
-        <f>$J$3*EXP(-$J$4*C3)</f>
+        <f>$K$3*EXP(-$K$4*C3)</f>
         <v>469.42255111061996</v>
       </c>
       <c r="E3">
@@ -4201,10 +4287,14 @@
         <v>2093.0045224047904</v>
       </c>
       <c r="J3">
+        <f>(1/I3)*1000000</f>
+        <v>477.78205412142842</v>
+      </c>
+      <c r="K3">
         <v>123218.09590224799</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -4212,7 +4302,7 @@
         <v>95</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D63" si="2">$J$3*EXP(-$J$4*C4)</f>
+        <f t="shared" ref="D4:D63" si="2">$K$3*EXP(-$K$4*C4)</f>
         <v>497.46555767507033</v>
       </c>
       <c r="E4">
@@ -4227,10 +4317,14 @@
         <v>1975.533205024497</v>
       </c>
       <c r="J4">
+        <f t="shared" ref="J4:J63" si="3">(1/I4)*1000000</f>
+        <v>506.19245348882902</v>
+      </c>
+      <c r="K4">
         <v>5.8022998718112E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -4250,8 +4344,12 @@
         <f t="shared" si="1"/>
         <v>1864.6550460723602</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>536.29222311459853</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4271,8 +4369,12 @@
         <f t="shared" si="1"/>
         <v>1760.0000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>568.18181818181802</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -4292,8 +4394,12 @@
         <f t="shared" si="1"/>
         <v>1661.2187903197812</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>601.96766724959934</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -4313,8 +4419,12 @@
         <f t="shared" si="1"/>
         <v>1567.9817439269975</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>637.76252744850729</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4334,8 +4444,12 @@
         <f t="shared" si="1"/>
         <v>1479.9776908465378</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>675.68586079700049</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -4355,8 +4469,12 @@
         <f t="shared" si="1"/>
         <v>1396.9129257320158</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>715.86423289481422</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -4376,8 +4494,12 @@
         <f t="shared" si="1"/>
         <v>1318.5102276514801</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>758.43173532388289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -4397,8 +4519,12 @@
         <f t="shared" si="1"/>
         <v>1244.5079348883239</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>803.53043316653111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -4418,8 +4544,12 @@
         <f t="shared" si="1"/>
         <v>1174.6590716696305</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>851.31083913447787</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -4439,8 +4569,12 @@
         <f t="shared" si="1"/>
         <v>1108.7305239074885</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>901.93241589102229</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -4467,8 +4601,12 @@
         <f t="shared" si="1"/>
         <v>1046.5022612023947</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>955.56410824285729</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -4490,8 +4628,12 @@
         <f t="shared" si="1"/>
         <v>987.76660251224848</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1012.384906977658</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -4511,8 +4653,12 @@
         <f>440*((2^(1/12))^(C17-69))</f>
         <v>932.32752303617985</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1072.5844462291971</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -4532,8 +4678,12 @@
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1136.3636363636363</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -4553,8 +4703,12 @@
         <f t="shared" si="1"/>
         <v>830.60939515989048</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1203.9353344991989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -4574,8 +4728,12 @@
         <f t="shared" si="1"/>
         <v>783.99087196349865</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1275.5250548970146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -4595,8 +4753,12 @@
         <f t="shared" si="1"/>
         <v>739.98884542326891</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1351.371721594001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -4616,8 +4778,12 @@
         <f t="shared" si="1"/>
         <v>698.45646286600777</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1431.7284657896287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -4637,8 +4803,12 @@
         <f t="shared" si="1"/>
         <v>659.25511382573995</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1516.863470647766</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -4658,8 +4828,12 @@
         <f t="shared" si="1"/>
         <v>622.25396744416184</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1607.0608663330627</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -4679,8 +4853,12 @@
         <f t="shared" si="1"/>
         <v>587.32953583481515</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1702.6216782689562</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -4700,8 +4878,12 @@
         <f t="shared" si="1"/>
         <v>554.36526195374415</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1803.864831782045</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -4728,8 +4910,12 @@
         <f t="shared" si="1"/>
         <v>523.25113060119736</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>1911.1282164857146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -4751,8 +4937,12 @@
         <f t="shared" si="1"/>
         <v>493.88330125612413</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>2024.7698139553163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -4772,8 +4962,12 @@
         <f t="shared" si="1"/>
         <v>466.16376151808993</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>2145.1688924583941</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -4793,8 +4987,12 @@
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>2272.7272727272725</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -4814,8 +5012,12 @@
         <f t="shared" si="1"/>
         <v>415.30469757994513</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>2407.8706689983983</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -4835,8 +5037,12 @@
         <f t="shared" si="1"/>
         <v>391.99543598174927</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>2551.0501097940296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -4856,8 +5062,12 @@
         <f t="shared" si="1"/>
         <v>369.99442271163434</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>2702.7434431880029</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -4877,8 +5087,12 @@
         <f t="shared" si="1"/>
         <v>349.22823143300388</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>2863.4569315792573</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -4898,8 +5112,12 @@
         <f t="shared" si="1"/>
         <v>329.62755691286992</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>3033.7269412955329</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>1</v>
       </c>
@@ -4919,8 +5137,12 @@
         <f t="shared" si="1"/>
         <v>311.12698372208087</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>3214.1217326661258</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -4940,8 +5162,12 @@
         <f t="shared" si="1"/>
         <v>293.66476791740752</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>3405.2433565379129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -4961,8 +5187,12 @@
         <f t="shared" si="1"/>
         <v>277.18263097687208</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>3607.7296635640901</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4989,8 +5219,12 @@
         <f t="shared" si="1"/>
         <v>261.62556530059862</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>3822.2564329714301</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>2</v>
       </c>
@@ -5012,8 +5246,12 @@
         <f t="shared" si="1"/>
         <v>246.94165062806201</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>4049.5396279106335</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5271,12 @@
         <f t="shared" si="1"/>
         <v>233.08188075904491</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>4290.3377849167891</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -5054,8 +5296,12 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>4545.454545454545</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -5075,8 +5321,12 @@
         <f t="shared" si="1"/>
         <v>207.65234878997256</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>4815.7413379967966</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -5096,8 +5346,12 @@
         <f t="shared" si="1"/>
         <v>195.99771799087461</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>5102.1002195880601</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -5117,8 +5371,12 @@
         <f t="shared" si="1"/>
         <v>184.99721135581717</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>5405.4868863760057</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -5138,8 +5396,12 @@
         <f t="shared" si="1"/>
         <v>174.61411571650191</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>5726.9138631585156</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -5159,8 +5421,12 @@
         <f t="shared" si="1"/>
         <v>164.81377845643493</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>6067.4538825910668</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>1</v>
       </c>
@@ -5180,8 +5446,12 @@
         <f t="shared" si="1"/>
         <v>155.5634918610404</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>6428.2434653322516</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -5201,8 +5471,12 @@
         <f t="shared" si="1"/>
         <v>146.83238395870373</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>6810.4867130758275</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -5222,8 +5496,12 @@
         <f t="shared" si="1"/>
         <v>138.59131548843604</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>7215.4593271281801</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -5250,8 +5528,12 @@
         <f t="shared" si="1"/>
         <v>130.81278265029928</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>7644.5128659428619</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>2</v>
       </c>
@@ -5270,11 +5552,15 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <f t="shared" ref="I52:I63" si="3">440*((2^(1/12))^(C52-69))</f>
+        <f t="shared" ref="I52:I63" si="4">440*((2^(1/12))^(C52-69))</f>
         <v>123.470825314031</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>8099.079255821267</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -5291,11 +5577,15 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53">
+        <f t="shared" si="4"/>
+        <v>116.54094037952244</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="3"/>
-        <v>116.54094037952244</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+        <v>8580.6755698335801</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>4</v>
       </c>
@@ -5312,11 +5602,15 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54">
+        <f t="shared" si="4"/>
+        <v>109.99999999999997</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="3"/>
-        <v>109.99999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+        <v>9090.9090909090937</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -5333,11 +5627,15 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55">
+        <f t="shared" si="4"/>
+        <v>103.82617439498627</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="3"/>
-        <v>103.82617439498627</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+        <v>9631.482675993595</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>6</v>
       </c>
@@ -5354,11 +5652,15 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56">
+        <f t="shared" si="4"/>
+        <v>97.998858995437303</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="3"/>
-        <v>97.998858995437303</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+        <v>10204.20043917612</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>7</v>
       </c>
@@ -5375,11 +5677,15 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57">
+        <f t="shared" si="4"/>
+        <v>92.498605677908543</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="3"/>
-        <v>92.498605677908543</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+        <v>10810.973772752017</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>8</v>
       </c>
@@ -5396,11 +5702,15 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58">
+        <f t="shared" si="4"/>
+        <v>87.307057858250957</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="3"/>
-        <v>87.307057858250957</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+        <v>11453.827726317031</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>9</v>
       </c>
@@ -5417,11 +5727,15 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59">
+        <f t="shared" si="4"/>
+        <v>82.406889228217466</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="3"/>
-        <v>82.406889228217466</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+        <v>12134.907765182134</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>1</v>
       </c>
@@ -5438,11 +5752,15 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60">
+        <f t="shared" si="4"/>
+        <v>77.781745930520202</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="3"/>
-        <v>77.781745930520202</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+        <v>12856.486930664503</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>10</v>
       </c>
@@ -5459,11 +5777,15 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61">
+        <f t="shared" si="4"/>
+        <v>73.416191979351865</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="3"/>
-        <v>73.416191979351865</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+        <v>13620.973426151655</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -5480,11 +5802,15 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62">
+        <f t="shared" si="4"/>
+        <v>69.295657744218005</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="3"/>
-        <v>69.295657744218005</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+        <v>14430.918654256364</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -5508,18 +5834,3586 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63">
+        <f t="shared" si="4"/>
+        <v>65.406391325149627</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="3"/>
-        <v>65.406391325149627</v>
+        <v>15289.025731885728</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="G71">
+        <f>12*C71+D71+12</f>
+        <v>47</v>
+      </c>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" t="str">
+        <f>B71&amp;H71&amp;C71</f>
+        <v>Ces_3</v>
+      </c>
+      <c r="L71">
+        <f>G71</f>
+        <v>47</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P71" t="str">
+        <f>I71&amp;M71&amp;K71&amp;M71&amp;N71&amp;M71&amp;L71&amp;O71</f>
+        <v>constexpr int  Ces_3 = 47;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>48</v>
+      </c>
+      <c r="G72">
+        <f>12*C72+D72+12</f>
+        <v>48</v>
+      </c>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" ref="K72:K135" si="5">B72&amp;H72&amp;C72</f>
+        <v>C_3</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ref="L72:L135" si="6">G72</f>
+        <v>48</v>
+      </c>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" ref="P72:P135" si="7">I72&amp;M72&amp;K72&amp;M72&amp;N72&amp;M72&amp;L72&amp;O72</f>
+        <v>constexpr int  C_3 = 48;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>49</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G136" si="8">12*C73+D73+12</f>
+        <v>49</v>
+      </c>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="5"/>
+        <v>Cis_3</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="M73" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Cis_3 = 49;</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>49</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="5"/>
+        <v>Des_3</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Des_3 = 49;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="5"/>
+        <v>D_3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  D_3 = 50;</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="5"/>
+        <v>Dis_3</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Dis_3 = 51;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="5"/>
+        <v>Es_3</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Es_3 = 51;</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="H78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="5"/>
+        <v>E_3</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  E_3 = 52;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="5"/>
+        <v>Eis_3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Eis_3 = 53;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="5"/>
+        <v>Fes_3</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Fes_3 = 52;</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="5"/>
+        <v>F_3</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  F_3 = 53;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="5"/>
+        <v>Fis_3</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Fis_3 = 54;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="H83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="5"/>
+        <v>Ges_3</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ges_3 = 54;</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="5"/>
+        <v>G_3</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  G_3 = 55;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="5"/>
+        <v>Gis_3</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="M85" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Gis_3 = 56;</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="5"/>
+        <v>As_3</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="M86" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  As_3 = 56;</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="5"/>
+        <v>A_3</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="M87" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  A_3 = 57;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="5"/>
+        <v>Ais_3</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="M88" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ais_3 = 58;</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="5"/>
+        <v>B_3</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="M89" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  B_3 = 58;</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>11</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="5"/>
+        <v>H_3</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="M90" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  H_3 = 59;</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="5"/>
+        <v>His_3</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M91" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  His_3 = 60;</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="5"/>
+        <v>Ces_4</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="M92" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ces_4 = 59;</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>48</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="5"/>
+        <v>C_4</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M93" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  C_4 = 60;</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>49</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="5"/>
+        <v>Cis_4</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="M94" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Cis_4 = 61;</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>49</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="5"/>
+        <v>Des_4</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="M95" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Des_4 = 61;</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="5"/>
+        <v>D_4</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="M96" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  D_4 = 62;</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="5"/>
+        <v>Dis_4</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="M97" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Dis_4 = 63;</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="5"/>
+        <v>Es_4</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="M98" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Es_4 = 63;</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="5"/>
+        <v>E_4</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="M99" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  E_4 = 64;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="H100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="5"/>
+        <v>Eis_4</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="M100" t="s">
+        <v>26</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Eis_4 = 65;</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="H101" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" t="s">
+        <v>28</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="5"/>
+        <v>Fes_4</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="M101" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Fes_4 = 64;</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="5"/>
+        <v>F_4</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="M102" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  F_4 = 65;</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="5"/>
+        <v>Fis_4</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="M103" t="s">
+        <v>26</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Fis_4 = 66;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="5"/>
+        <v>Ges_4</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="M104" t="s">
+        <v>26</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ges_4 = 66;</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="H105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" t="s">
+        <v>28</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="5"/>
+        <v>G_4</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="M105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  G_4 = 67;</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="H106" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="5"/>
+        <v>Gis_4</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="M106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Gis_4 = 68;</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="H107" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="5"/>
+        <v>As_4</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="M107" t="s">
+        <v>26</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  As_4 = 68;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="5"/>
+        <v>A_4</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="M108" t="s">
+        <v>26</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  A_4 = 69;</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="5"/>
+        <v>Ais_4</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M109" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ais_4 = 70;</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="H110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="5"/>
+        <v>B_4</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M110" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  B_4 = 70;</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="H111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="5"/>
+        <v>H_4</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="M111" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  H_4 = 71;</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>12</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="5"/>
+        <v>His_4</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="M112" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  His_4 = 72;</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>-1</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="5"/>
+        <v>Ces_5</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="M113" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ces_5 = 71;</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>48</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="5"/>
+        <v>C_5</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="M114" t="s">
+        <v>26</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  C_5 = 72;</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>49</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="5"/>
+        <v>Cis_5</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="M115" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Cis_5 = 73;</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>49</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="5"/>
+        <v>Des_5</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="M116" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Des_5 = 73;</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="5"/>
+        <v>D_5</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M117" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  D_5 = 74;</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="H118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="5"/>
+        <v>Dis_5</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="M118" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Dis_5 = 75;</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="5"/>
+        <v>Es_5</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="M119" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Es_5 = 75;</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="5"/>
+        <v>E_5</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="M120" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  E_5 = 76;</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="5"/>
+        <v>Eis_5</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="M121" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Eis_5 = 77;</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="H122" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="5"/>
+        <v>Fes_5</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="M122" t="s">
+        <v>26</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Fes_5 = 76;</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="5"/>
+        <v>F_5</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="M123" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  F_5 = 77;</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="5"/>
+        <v>Fis_5</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="M124" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Fis_5 = 78;</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="5"/>
+        <v>Ges_5</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="M125" t="s">
+        <v>26</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ges_5 = 78;</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="5"/>
+        <v>G_5</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="M126" t="s">
+        <v>26</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P126" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  G_5 = 79;</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H127" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="5"/>
+        <v>Gis_5</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="M127" t="s">
+        <v>26</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Gis_5 = 80;</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="5"/>
+        <v>As_5</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="M128" t="s">
+        <v>26</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P128" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  As_5 = 80;</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="H129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" t="s">
+        <v>28</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="5"/>
+        <v>A_5</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="M129" t="s">
+        <v>26</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P129" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  A_5 = 81;</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="H130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" t="s">
+        <v>28</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="5"/>
+        <v>Ais_5</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="M130" t="s">
+        <v>26</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P130" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ais_5 = 82;</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="H131" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" t="s">
+        <v>28</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="5"/>
+        <v>B_5</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="M131" t="s">
+        <v>26</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P131" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  B_5 = 82;</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="H132" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" t="s">
+        <v>28</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="5"/>
+        <v>H_5</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="M132" t="s">
+        <v>26</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  H_5 = 83;</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="H133" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" t="s">
+        <v>28</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="5"/>
+        <v>His_5</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="M133" t="s">
+        <v>26</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  His_5 = 84;</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>-1</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="H134" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" t="s">
+        <v>28</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="5"/>
+        <v>Ces_6</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="M134" t="s">
+        <v>26</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  Ces_6 = 83;</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>48</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="H135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" t="s">
+        <v>28</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="5"/>
+        <v>C_6</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="M135" t="s">
+        <v>26</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="7"/>
+        <v>constexpr int  C_6 = 84;</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>49</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="H136" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" t="s">
+        <v>28</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" ref="K136:K154" si="9">B136&amp;H136&amp;C136</f>
+        <v>Cis_6</v>
+      </c>
+      <c r="L136">
+        <f t="shared" ref="L136:L154" si="10">G136</f>
+        <v>85</v>
+      </c>
+      <c r="M136" t="s">
+        <v>26</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" ref="P136:P154" si="11">I136&amp;M136&amp;K136&amp;M136&amp;N136&amp;M136&amp;L136&amp;O136</f>
+        <v>constexpr int  Cis_6 = 85;</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>49</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ref="G137:G154" si="12">12*C137+D137+12</f>
+        <v>85</v>
+      </c>
+      <c r="H137" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137" t="s">
+        <v>28</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="9"/>
+        <v>Des_6</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="M137" t="s">
+        <v>26</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Des_6 = 85;</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="H138" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" t="s">
+        <v>28</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="9"/>
+        <v>D_6</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="M138" t="s">
+        <v>26</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P138" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  D_6 = 86;</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="H139" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" t="s">
+        <v>28</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="9"/>
+        <v>Dis_6</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="M139" t="s">
+        <v>26</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P139" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Dis_6 = 87;</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="H140" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" t="s">
+        <v>28</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="9"/>
+        <v>Es_6</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="M140" t="s">
+        <v>26</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P140" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Es_6 = 87;</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="H141" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" t="s">
+        <v>28</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="9"/>
+        <v>E_6</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="M141" t="s">
+        <v>26</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P141" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  E_6 = 88;</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="H142" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" t="s">
+        <v>28</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="9"/>
+        <v>Eis_6</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="M142" t="s">
+        <v>26</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P142" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Eis_6 = 89;</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="H143" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" t="s">
+        <v>28</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="9"/>
+        <v>Fes_6</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="M143" t="s">
+        <v>26</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P143" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Fes_6 = 88;</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="H144" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" t="s">
+        <v>28</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="9"/>
+        <v>F_6</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="M144" t="s">
+        <v>26</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P144" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  F_6 = 89;</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="H145" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" t="s">
+        <v>28</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="9"/>
+        <v>Fis_6</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="M145" t="s">
+        <v>26</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P145" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Fis_6 = 90;</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="H146" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" t="s">
+        <v>28</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="9"/>
+        <v>Ges_6</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="M146" t="s">
+        <v>26</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P146" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Ges_6 = 90;</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
+      <c r="H147" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" t="s">
+        <v>28</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="9"/>
+        <v>G_6</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="M147" t="s">
+        <v>26</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P147" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  G_6 = 91;</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="H148" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" t="s">
+        <v>28</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="9"/>
+        <v>Gis_6</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="M148" t="s">
+        <v>26</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P148" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Gis_6 = 92;</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>8</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="H149" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" t="s">
+        <v>28</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="9"/>
+        <v>As_6</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="M149" t="s">
+        <v>26</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P149" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  As_6 = 92;</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="H150" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" t="s">
+        <v>28</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="9"/>
+        <v>A_6</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="M150" t="s">
+        <v>26</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P150" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  A_6 = 93;</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="H151" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" t="s">
+        <v>28</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" si="9"/>
+        <v>Ais_6</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="M151" t="s">
+        <v>26</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  Ais_6 = 94;</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="H152" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" t="s">
+        <v>28</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="9"/>
+        <v>B_6</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="M152" t="s">
+        <v>26</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  B_6 = 94;</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="H153" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" t="s">
+        <v>28</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="9"/>
+        <v>H_6</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="M153" t="s">
+        <v>26</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P153" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  H_6 = 95;</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="H154" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" t="s">
+        <v>28</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="9"/>
+        <v>His_6</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="M154" t="s">
+        <v>26</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P154" t="str">
+        <f t="shared" si="11"/>
+        <v>constexpr int  His_6 = 96;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H52:H63"/>
     <mergeCell ref="H4:H15"/>
     <mergeCell ref="H16:H27"/>
     <mergeCell ref="H28:H39"/>
     <mergeCell ref="H40:H51"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H52:H63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
